--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.528399999999997</v>
+        <v>6.511799999999995</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.50650000000002</v>
+        <v>-21.59790000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.739200000000002</v>
+        <v>4.808000000000002</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.0844</v>
+        <v>-13.6192</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.6308</v>
+        <v>11.7916</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.72200000000001</v>
+        <v>-11.61200000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.3008</v>
+        <v>-13.61640000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3946</v>
+        <v>13.4474</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.34909999999998</v>
+        <v>-20.38089999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.5239</v>
+        <v>13.5468</v>
       </c>
     </row>
     <row r="20">
@@ -785,19 +785,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.32380000000002</v>
+        <v>-21.11510000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.24279999999999</v>
+        <v>-11.358</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.3578</v>
+        <v>12.387</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.50130000000003</v>
+        <v>-21.47440000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.59230000000004</v>
+        <v>-22.39820000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
